--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Camp-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Camp-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Camp</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
@@ -543,10 +546,10 @@
         <v>0.33255</v>
       </c>
       <c r="I2">
-        <v>0.2118415981602811</v>
+        <v>0.2777030852558075</v>
       </c>
       <c r="J2">
-        <v>0.2118415981602811</v>
+        <v>0.2777030852558076</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,10 +564,10 @@
         <v>3.327523</v>
       </c>
       <c r="O2">
-        <v>0.06061832081580491</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="P2">
-        <v>0.06061832081580491</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="Q2">
         <v>0.12295197485</v>
@@ -573,10 +576,10 @@
         <v>1.10656777365</v>
       </c>
       <c r="S2">
-        <v>0.01284148195941275</v>
+        <v>0.03330624935404764</v>
       </c>
       <c r="T2">
-        <v>0.01284148195941275</v>
+        <v>0.03330624935404764</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
@@ -605,10 +608,10 @@
         <v>0.33255</v>
       </c>
       <c r="I3">
-        <v>0.2118415981602811</v>
+        <v>0.2777030852558075</v>
       </c>
       <c r="J3">
-        <v>0.2118415981602811</v>
+        <v>0.2777030852558076</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.402069333333333</v>
+        <v>6.33823</v>
       </c>
       <c r="N3">
-        <v>13.206208</v>
+        <v>19.01469</v>
       </c>
       <c r="O3">
-        <v>0.2405808023879172</v>
+        <v>0.6853512477903235</v>
       </c>
       <c r="P3">
-        <v>0.2405808023879172</v>
+        <v>0.6853512477903234</v>
       </c>
       <c r="Q3">
-        <v>0.4879693856</v>
+        <v>0.7025927955000001</v>
       </c>
       <c r="R3">
-        <v>4.3917244704</v>
+        <v>6.323335159500001</v>
       </c>
       <c r="S3">
-        <v>0.05096502166453915</v>
+        <v>0.1903241559952903</v>
       </c>
       <c r="T3">
-        <v>0.05096502166453915</v>
+        <v>0.1903241559952903</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,54 +670,54 @@
         <v>0.33255</v>
       </c>
       <c r="I4">
-        <v>0.2118415981602811</v>
+        <v>0.2777030852558075</v>
       </c>
       <c r="J4">
-        <v>0.2118415981602811</v>
+        <v>0.2777030852558076</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>12.78643133333333</v>
+        <v>0.09159266666666667</v>
       </c>
       <c r="N4">
-        <v>38.35929400000001</v>
+        <v>0.274778</v>
       </c>
       <c r="O4">
-        <v>0.6988008767962779</v>
+        <v>0.009903892472889619</v>
       </c>
       <c r="P4">
-        <v>0.6988008767962779</v>
+        <v>0.009903892472889617</v>
       </c>
       <c r="Q4">
-        <v>1.4173759133</v>
+        <v>0.0101530471</v>
       </c>
       <c r="R4">
-        <v>12.7563832197</v>
+        <v>0.0913774239</v>
       </c>
       <c r="S4">
-        <v>0.1480350945363292</v>
+        <v>0.002750341495763216</v>
       </c>
       <c r="T4">
-        <v>0.1480350945363292</v>
+        <v>0.002750341495763216</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +726,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05618933333333333</v>
+        <v>0.11085</v>
       </c>
       <c r="H5">
-        <v>0.168568</v>
+        <v>0.33255</v>
       </c>
       <c r="I5">
-        <v>0.1073814900576823</v>
+        <v>0.2777030852558075</v>
       </c>
       <c r="J5">
-        <v>0.1073814900576823</v>
+        <v>0.2777030852558076</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.109174333333333</v>
+        <v>1.709151333333333</v>
       </c>
       <c r="N5">
-        <v>3.327523</v>
+        <v>5.127454</v>
       </c>
       <c r="O5">
-        <v>0.06061832081580491</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="P5">
-        <v>0.06061832081580491</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="Q5">
-        <v>0.06232376634044444</v>
+        <v>0.1894594253</v>
       </c>
       <c r="R5">
-        <v>0.560913897064</v>
+        <v>1.7051348277</v>
       </c>
       <c r="S5">
-        <v>0.006509285613995753</v>
+        <v>0.05132233841070641</v>
       </c>
       <c r="T5">
-        <v>0.006509285613995752</v>
+        <v>0.05132233841070642</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,40 +794,40 @@
         <v>0.168568</v>
       </c>
       <c r="I6">
-        <v>0.1073814900576823</v>
+        <v>0.1407663619768485</v>
       </c>
       <c r="J6">
-        <v>0.1073814900576823</v>
+        <v>0.1407663619768485</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>4.402069333333333</v>
+        <v>1.109174333333333</v>
       </c>
       <c r="N6">
-        <v>13.206208</v>
+        <v>3.327523</v>
       </c>
       <c r="O6">
-        <v>0.2405808023879172</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="P6">
-        <v>0.2405808023879172</v>
+        <v>0.1199347472980627</v>
       </c>
       <c r="Q6">
-        <v>0.2473493411271111</v>
+        <v>0.06232376634044444</v>
       </c>
       <c r="R6">
-        <v>2.226144070144</v>
+        <v>0.560913897064</v>
       </c>
       <c r="S6">
-        <v>0.02583392503968737</v>
+        <v>0.01688277805176095</v>
       </c>
       <c r="T6">
-        <v>0.02583392503968737</v>
+        <v>0.01688277805176095</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,10 +856,10 @@
         <v>0.168568</v>
       </c>
       <c r="I7">
-        <v>0.1073814900576823</v>
+        <v>0.1407663619768485</v>
       </c>
       <c r="J7">
-        <v>0.1073814900576823</v>
+        <v>0.1407663619768485</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,122 +868,122 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.78643133333333</v>
+        <v>6.33823</v>
       </c>
       <c r="N7">
-        <v>38.35929400000001</v>
+        <v>19.01469</v>
       </c>
       <c r="O7">
-        <v>0.6988008767962779</v>
+        <v>0.6853512477903235</v>
       </c>
       <c r="P7">
-        <v>0.6988008767962779</v>
+        <v>0.6853512477903234</v>
       </c>
       <c r="Q7">
-        <v>0.7184610523324445</v>
+        <v>0.3561409182133334</v>
       </c>
       <c r="R7">
-        <v>6.466149470992001</v>
+        <v>3.20526826392</v>
       </c>
       <c r="S7">
-        <v>0.07503827940399921</v>
+        <v>0.09647440182773745</v>
       </c>
       <c r="T7">
-        <v>0.07503827940399921</v>
+        <v>0.09647440182773745</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.356229</v>
+        <v>0.05618933333333333</v>
       </c>
       <c r="H8">
-        <v>1.068687</v>
+        <v>0.168568</v>
       </c>
       <c r="I8">
-        <v>0.6807769117820366</v>
+        <v>0.1407663619768485</v>
       </c>
       <c r="J8">
-        <v>0.6807769117820366</v>
+        <v>0.1407663619768485</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.109174333333333</v>
+        <v>0.09159266666666667</v>
       </c>
       <c r="N8">
-        <v>3.327523</v>
+        <v>0.274778</v>
       </c>
       <c r="O8">
-        <v>0.06061832081580491</v>
+        <v>0.009903892472889619</v>
       </c>
       <c r="P8">
-        <v>0.06061832081580491</v>
+        <v>0.009903892472889617</v>
       </c>
       <c r="Q8">
-        <v>0.3951200635889999</v>
+        <v>0.005146530878222222</v>
       </c>
       <c r="R8">
-        <v>3.556080572301</v>
+        <v>0.04631877790400001</v>
       </c>
       <c r="S8">
-        <v>0.04126755324239641</v>
+        <v>0.001394134912818565</v>
       </c>
       <c r="T8">
-        <v>0.04126755324239641</v>
+        <v>0.001394134912818565</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.356229</v>
+        <v>0.05618933333333333</v>
       </c>
       <c r="H9">
-        <v>1.068687</v>
+        <v>0.168568</v>
       </c>
       <c r="I9">
-        <v>0.6807769117820366</v>
+        <v>0.1407663619768485</v>
       </c>
       <c r="J9">
-        <v>0.6807769117820366</v>
+        <v>0.1407663619768485</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.402069333333333</v>
+        <v>1.709151333333333</v>
       </c>
       <c r="N9">
-        <v>13.206208</v>
+        <v>5.127454</v>
       </c>
       <c r="O9">
-        <v>0.2405808023879172</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="P9">
-        <v>0.2405808023879172</v>
+        <v>0.1848101124387242</v>
       </c>
       <c r="Q9">
-        <v>1.568144756544</v>
+        <v>0.09603607398577779</v>
       </c>
       <c r="R9">
-        <v>14.113302808896</v>
+        <v>0.864324665872</v>
       </c>
       <c r="S9">
-        <v>0.1637818556836907</v>
+        <v>0.02601504718453152</v>
       </c>
       <c r="T9">
-        <v>0.1637818556836907</v>
+        <v>0.02601504718453152</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1021,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.099798</v>
+      </c>
+      <c r="H10">
+        <v>0.299394</v>
+      </c>
+      <c r="I10">
+        <v>0.2500154488259727</v>
+      </c>
+      <c r="J10">
+        <v>0.2500154488259728</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>1.109174333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.327523</v>
+      </c>
+      <c r="O10">
+        <v>0.1199347472980627</v>
+      </c>
+      <c r="P10">
+        <v>0.1199347472980627</v>
+      </c>
+      <c r="Q10">
+        <v>0.110693380118</v>
+      </c>
+      <c r="R10">
+        <v>0.9962404210619999</v>
+      </c>
+      <c r="S10">
+        <v>0.02998553967555477</v>
+      </c>
+      <c r="T10">
+        <v>0.02998553967555477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.099798</v>
+      </c>
+      <c r="H11">
+        <v>0.299394</v>
+      </c>
+      <c r="I11">
+        <v>0.2500154488259727</v>
+      </c>
+      <c r="J11">
+        <v>0.2500154488259728</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.33823</v>
+      </c>
+      <c r="N11">
+        <v>19.01469</v>
+      </c>
+      <c r="O11">
+        <v>0.6853512477903235</v>
+      </c>
+      <c r="P11">
+        <v>0.6853512477903234</v>
+      </c>
+      <c r="Q11">
+        <v>0.63254267754</v>
+      </c>
+      <c r="R11">
+        <v>5.69288409786</v>
+      </c>
+      <c r="S11">
+        <v>0.1713483998197382</v>
+      </c>
+      <c r="T11">
+        <v>0.1713483998197382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.099798</v>
+      </c>
+      <c r="H12">
+        <v>0.299394</v>
+      </c>
+      <c r="I12">
+        <v>0.2500154488259727</v>
+      </c>
+      <c r="J12">
+        <v>0.2500154488259728</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.09159266666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.274778</v>
+      </c>
+      <c r="O12">
+        <v>0.009903892472889619</v>
+      </c>
+      <c r="P12">
+        <v>0.009903892472889617</v>
+      </c>
+      <c r="Q12">
+        <v>0.009140764948000001</v>
+      </c>
+      <c r="R12">
+        <v>0.082266884532</v>
+      </c>
+      <c r="S12">
+        <v>0.002476126121733671</v>
+      </c>
+      <c r="T12">
+        <v>0.002476126121733671</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="E10">
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.099798</v>
+      </c>
+      <c r="H13">
+        <v>0.299394</v>
+      </c>
+      <c r="I13">
+        <v>0.2500154488259727</v>
+      </c>
+      <c r="J13">
+        <v>0.2500154488259728</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.709151333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.127454</v>
+      </c>
+      <c r="O13">
+        <v>0.1848101124387242</v>
+      </c>
+      <c r="P13">
+        <v>0.1848101124387242</v>
+      </c>
+      <c r="Q13">
+        <v>0.170569884764</v>
+      </c>
+      <c r="R13">
+        <v>1.535128962876</v>
+      </c>
+      <c r="S13">
+        <v>0.04620538320894613</v>
+      </c>
+      <c r="T13">
+        <v>0.04620538320894613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.13233</v>
+      </c>
+      <c r="H14">
+        <v>0.39699</v>
+      </c>
+      <c r="I14">
+        <v>0.3315151039413712</v>
+      </c>
+      <c r="J14">
+        <v>0.3315151039413713</v>
+      </c>
+      <c r="K14">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.356229</v>
-      </c>
-      <c r="H10">
-        <v>1.068687</v>
-      </c>
-      <c r="I10">
-        <v>0.6807769117820366</v>
-      </c>
-      <c r="J10">
-        <v>0.6807769117820366</v>
-      </c>
-      <c r="K10">
+      <c r="M14">
+        <v>1.109174333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.327523</v>
+      </c>
+      <c r="O14">
+        <v>0.1199347472980627</v>
+      </c>
+      <c r="P14">
+        <v>0.1199347472980627</v>
+      </c>
+      <c r="Q14">
+        <v>0.14677703953</v>
+      </c>
+      <c r="R14">
+        <v>1.32099335577</v>
+      </c>
+      <c r="S14">
+        <v>0.03976018021669936</v>
+      </c>
+      <c r="T14">
+        <v>0.03976018021669937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.13233</v>
+      </c>
+      <c r="H15">
+        <v>0.39699</v>
+      </c>
+      <c r="I15">
+        <v>0.3315151039413712</v>
+      </c>
+      <c r="J15">
+        <v>0.3315151039413713</v>
+      </c>
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>12.78643133333333</v>
-      </c>
-      <c r="N10">
-        <v>38.35929400000001</v>
-      </c>
-      <c r="O10">
-        <v>0.6988008767962779</v>
-      </c>
-      <c r="P10">
-        <v>0.6988008767962779</v>
-      </c>
-      <c r="Q10">
-        <v>4.554897647442</v>
-      </c>
-      <c r="R10">
-        <v>40.994078826978</v>
-      </c>
-      <c r="S10">
-        <v>0.4757275028559495</v>
-      </c>
-      <c r="T10">
-        <v>0.4757275028559495</v>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.33823</v>
+      </c>
+      <c r="N15">
+        <v>19.01469</v>
+      </c>
+      <c r="O15">
+        <v>0.6853512477903235</v>
+      </c>
+      <c r="P15">
+        <v>0.6853512477903234</v>
+      </c>
+      <c r="Q15">
+        <v>0.8387379759000001</v>
+      </c>
+      <c r="R15">
+        <v>7.548641783100001</v>
+      </c>
+      <c r="S15">
+        <v>0.2272042901475576</v>
+      </c>
+      <c r="T15">
+        <v>0.2272042901475576</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.13233</v>
+      </c>
+      <c r="H16">
+        <v>0.39699</v>
+      </c>
+      <c r="I16">
+        <v>0.3315151039413712</v>
+      </c>
+      <c r="J16">
+        <v>0.3315151039413713</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.09159266666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.274778</v>
+      </c>
+      <c r="O16">
+        <v>0.009903892472889619</v>
+      </c>
+      <c r="P16">
+        <v>0.009903892472889617</v>
+      </c>
+      <c r="Q16">
+        <v>0.01212045758</v>
+      </c>
+      <c r="R16">
+        <v>0.10908411822</v>
+      </c>
+      <c r="S16">
+        <v>0.003283289942574166</v>
+      </c>
+      <c r="T16">
+        <v>0.003283289942574167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.13233</v>
+      </c>
+      <c r="H17">
+        <v>0.39699</v>
+      </c>
+      <c r="I17">
+        <v>0.3315151039413712</v>
+      </c>
+      <c r="J17">
+        <v>0.3315151039413713</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.709151333333333</v>
+      </c>
+      <c r="N17">
+        <v>5.127454</v>
+      </c>
+      <c r="O17">
+        <v>0.1848101124387242</v>
+      </c>
+      <c r="P17">
+        <v>0.1848101124387242</v>
+      </c>
+      <c r="Q17">
+        <v>0.22617199594</v>
+      </c>
+      <c r="R17">
+        <v>2.03554796346</v>
+      </c>
+      <c r="S17">
+        <v>0.06126734363454017</v>
+      </c>
+      <c r="T17">
+        <v>0.06126734363454019</v>
       </c>
     </row>
   </sheetData>
